--- a/biology/Botanique/Tocoyena_longiflora/Tocoyena_longiflora.xlsx
+++ b/biology/Botanique/Tocoyena_longiflora/Tocoyena_longiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tocoyena longiflora est une  espèce d'arbuste néotropical, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Tocoyena Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tocoyena longiflora est un arbuste atteignant 3,5 m de haut, avec une tige de 2 cm de diamètre.
 Les stipules sont triangulaires, longues d'environ 1 cm.
@@ -519,7 +533,7 @@
 Les inflorescences sont terminales, comportant environ 11 fleurs.
 La fleur a un calice long d'environ 10 mm, avec des lobes longs d'environ 2,5 mm.
 Le tube de la corolle est glabre, long d'environ 30 cm, de couleur jaune pour sa moitié inférieure, et blanche pour la moitié supérieure, avec des lobes blancs, longs d'environ 1 cm.
-Les fruits sont glabres[2].
+Les fruits sont glabres.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Tocoyena longiflora de la Guyane au nord-est du Brésil (Pará[3], Maranhão)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Tocoyena longiflora de la Guyane au nord-est du Brésil (Pará, Maranhão).
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phylogénie de Tocoyena longiflora a été étudiée[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénie de Tocoyena longiflora a été étudiée,.
 </t>
         </is>
       </c>
@@ -610,10 +628,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fleurit en Guyane en juin (floraison nocturne), et fructifie en août-septembre dans les forêts de terre ferme[2], et sur les affleurements rocheux de savane[4].
-Son pollen a été étudié[6]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fleurit en Guyane en juin (floraison nocturne), et fructifie en août-septembre dans les forêts de terre ferme, et sur les affleurements rocheux de savane.
+Son pollen a été étudié
 </t>
         </is>
       </c>
@@ -642,9 +662,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tocoyena longiflora contiendrait des alcaloïdes émétiques comme l'Emetine[7],[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tocoyena longiflora contiendrait des alcaloïdes émétiques comme l'Emetine,.
 </t>
         </is>
       </c>
@@ -673,9 +695,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant[9] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « 1. TOCOYENA longiflora. (TABULA 50.) 
 Planta caule recto, ſimplici, tetragono, tripedali. Folia oppoſita, longa, lanceolata, acuta, integerrima, petiolata. Stipulæ bilobæ, lobis oppoſitis, acutis, amplexicaules, adnexæ. Flores verticiliati, terminales 5 verticillis quadri vel ſex-floris, ſeſſilibus. Flores utrinquè bini aut terni oppoſiti ; ab utroquè latere ſtipula ſubrotunda, acuta.
 Flores expanſi ſuavem odorem exhalant.
